--- a/equipment_data.xlsx
+++ b/equipment_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,13 +535,189 @@
           <t>2024-08-26 10:50:46</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2024-08-29 12:47:41</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>2024-08-26</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AM-001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Vinod Singh</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>My name</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1231231234</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>this is an address</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>230</v>
+      </c>
+      <c r="H3" t="n">
+        <v>11</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2024-08-29 23:00:26</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2024-08-29 23:28:19</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>XRM-003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Vinod Singh</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>dialogueCheeseTestV1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1231231234</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>cheese test V1</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>23</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2024-08-29 23:42:04</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2024-08-30 13:59:44</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2024-08-29</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AM-001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Vinod Singh</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>dialogTestV6</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1231231234</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>this is my address</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>223</v>
+      </c>
+      <c r="H5" t="n">
+        <v>11</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2024-08-30 13:59:15</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2024-08-30 13:59:38</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
